--- a/gd/Demo/Ver0.2对局设计.xlsx
+++ b/gd/Demo/Ver0.2对局设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对局1" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="392">
   <si>
     <t>小怪局</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -418,18 +418,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>状态变化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程1：怪物为腾空飞起状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程2：怪物为站立状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>弱点名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -489,10 +477,6 @@
     <t>弱点死亡时，显示的mesh</t>
   </si>
   <si>
-    <t>hundun_weakpoint1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>hundun_chibang</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -501,10 +485,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hundun_weakpoint2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>hundun_weakpoint3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -537,14 +517,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hundun_weakpoint4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hundun_weakpoint5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>hundun_weakpoint6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -557,10 +529,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hundun_moxing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>hundun_liangyan</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -577,70 +545,977 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>hundun_ruodian_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hundun_ruodian_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hundun_ruodian_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hundun_ruodian_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hundun_ruodian_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hundun_ruodian_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hundun_chibang_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破本体后，进程1结束，同时对局结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示弱点：翅膀、眼罩、本体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示弱点：眼睛、嘴巴、本体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破本体后，进程2结束，同时对局结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间站位出现boss</t>
+  </si>
+  <si>
+    <t>技能说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点形式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯弱点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点破坏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯弱点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>九个尾巴，本体，共10个可打击点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_moxing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_ruodian_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破坏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_weiba8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_weiba6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_weiba4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_weiba2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_weiba4_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_weiba8_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾中有4个尾巴有提升治疗的效果（部位破坏的4条尾巴），需要先消灭提升治疗效果的尾巴才能战胜九尾狐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间站位出现boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭所有怪物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体，共1个可打击点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ershu_ruodian_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ershu_weakpoint1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ershu_moxing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破耳鼠后，进程1结束，进入进程2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白泽、耳鼠、青鸟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白泽本体血量低于50%后，进程1结束，进入进程3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破白泽本体后，进程2结束，同时对局结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧站位出现耳鼠，中间站位出现boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧站位出现耳鼠，继承进程1血量与能量，中间站位出现白泽，继承进程1血量与能量，右侧站位出现青鸟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破白泽本体后，进程3结束，同时对局结束（不可能的，啊哈哈啊）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>99个周期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingniao_ruodian_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingniao_weakpoint1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingniao_moxing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个神眼、头顶角、口中诏、本体，共6个可打击点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baize_ruodian_1</t>
+  </si>
+  <si>
+    <t>baize_ruodian_2</t>
+  </si>
+  <si>
+    <t>baize_ruodian_3</t>
+  </si>
+  <si>
+    <t>baize_ruodian_4</t>
+  </si>
+  <si>
+    <t>baize_ruodian_5</t>
+  </si>
+  <si>
+    <t>baize_ruodian_6</t>
+  </si>
+  <si>
+    <t>baize_weakpoint1</t>
+  </si>
+  <si>
+    <t>baize_weakpoint2</t>
+  </si>
+  <si>
+    <t>baize_weakpoint3</t>
+  </si>
+  <si>
+    <t>baize_weakpoint4</t>
+  </si>
+  <si>
+    <t>baize_weakpoint5</t>
+  </si>
+  <si>
+    <t>baize_weakpoint6</t>
+  </si>
+  <si>
+    <t>baize_moxing</t>
+  </si>
+  <si>
+    <t>神眼1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神眼2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神眼3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头顶角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>口中诏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baize_shenyan1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baize_shenyan2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baize_shenyan3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强档治疗，附带hot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强档群体法攻，附带属性下降（智力）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强档治疗，附带hot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个周期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强档治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点破坏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.体验进程切换，目标状态变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.体现弱点与本体属性不同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.体验弱点部位破坏玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.体验弱点受伤比加成/减损玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.体现弱点影响技能效果玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.体现弱点对技能的加成效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.体现相同位置不同弱点效果的玩法（玩家取舍）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.弱点部位破坏后的模型显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.体现多怪物之间配合玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.体现非纯数值玩法（需要按照玩法操作）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.体现非怪物本体模型上的隐藏物件玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.体现多属性伙伴搭配玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在神眼存在时会使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在神眼存在时会使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.体验普通本体弱点的玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.体验隐藏怪物需要照妖镜操作照出的玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用防御技能，免伤25%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中档单击，给敌方单体目标造成120%物理攻击力的物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中档治疗，给己方单体目标回复60%法术攻击力的血量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中档法攻，给敌方单体目标造成120%法术攻击力的水属性伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性提升（力量，智力），使己方单体目标智力提升5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性下降（防御力），使敌方单体目标防御力降低50%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackMedium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicCureMedium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffMagic</t>
+  </si>
+  <si>
+    <t>defend</t>
+  </si>
+  <si>
+    <t>attackSlight</t>
+  </si>
+  <si>
+    <t>magicWaterMedium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffDefense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱档单击，给敌方单体目标造成100%物理攻击力的物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireSlight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAttack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultZhuyan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用防御技能通用防御技能，免伤25%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>defend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicCureSlight</t>
+  </si>
+  <si>
+    <t>弱档治疗，回复50%法术攻击力血量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强档三连击，给敌方单体目标造成三次40%物理攻击力的物理攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffMagicsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackTriSlight</t>
+  </si>
+  <si>
+    <t>封印目标技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterStrong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWater/Fire/Earth/Plant/MetalStrong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠切进程实现修改弱点受伤比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱档三连击，给敌方单体目标造成三次30%物理攻击力的物理攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强档法攻，给敌方单体目标造成140%法术攻击力的水属性伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用克制目标的法术进行攻击，需要表现上进行区分，，给敌方单体目标造成140%法术攻击力的各种属性伤害（通过目标属性选择技能）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（确认AI是否可以实现）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beneficial</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffMagic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossJiuweihu1,2,3,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(可以理解为大招)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔10个出手，使用一次该技能，效果为中档*治疗效果尾巴数治疗；目前实现为：拥有4只治疗尾巴时，回复1200%法术攻击力血量；拥有3只治疗尾巴时，回复800%法术攻击力血量；拥有2只治疗尾巴时，回复400%法术攻击力血量；拥有1只治疗尾巴时，回复300%法术攻击力血量；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方随机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方随机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中档单击，给单体目标造成120%物理攻击力的物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中档治疗，给单体目标回复60%法术攻击力的血量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性提升（智力），使单体目标智力提升5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方随机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱档单击，给单体目标造成100%物理攻击力的物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中档法攻，给单体目标造成120%法术攻击力的水属性伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性下降（防御力），使单体目标防御力降低50%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方随机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方随机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性提升（力量），使单体目标力量提升5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱档法攻，给单体目标造成100%法术攻击力的土属性伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强档单攻，给单体目标造成140%物理攻击力的物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方随机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性提升（智力），使目标智力提升5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱档法攻，给单体目标造成100%法术攻击力的火属性伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicAttack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicAttack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯弱点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破眼罩后，进程1结束，同时切换至进程2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破翅膀后，进程1结束，同时切换至进程3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示弱点：翅膀、穴位、舌头、本体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破本体后，进程2结束，同时对局结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间站位出现boss，继承进程1血量与能量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间站位出现boss，继承上一个进程血量与能量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破翅膀后，进程2结束，同时切换至进程4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间站位出现boss，继承进程1血量与能量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破本体后，进程4结束，同时对局结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示弱点：穴位、舌头、眼睛、嘴巴、本体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破眼罩后，进程3结束，同时切换至进程4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯弱点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现调整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始出现1个青鸟，1个朱厌，1个耳鼠，然后依次刷出青鸟、朱厌、耳鼠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示弱点：翅膀、眼罩、本体、舌头、肚子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破本体后，进程1结束，同时对局结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程1：翅膀、眼罩、舌头、本体、肚子，共5个可打击点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肚子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalAttack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_shouji</t>
+  </si>
+  <si>
+    <t>e_ruodian_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weakpointEffect1</t>
+  </si>
+  <si>
     <t>hundun_ruodian_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hundun_ruodian_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hundun_ruodian_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hundun_ruodian_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hundun_ruodian_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hundun_ruodian_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hundun_ruodian_7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程2：肚子上眼睛与嘴巴、本体，共3个可打击点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程1：翅膀、眼罩、舌头、眼罩后穴位、本体，共5个可打击点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hundun_chibang_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破本体后，进程1结束，同时对局结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认显示弱点：翅膀、眼罩、本体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认显示弱点：眼睛、嘴巴、本体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破本体后，进程2结束，同时对局结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间站位出现boss</t>
-  </si>
-  <si>
-    <t>技能说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>木</t>
+    <t>e_ruodian_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackStabStrong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthSlight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAttack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutTriStrong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutMedium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackStabSlight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSmashStrong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bone036</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_shouji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baozha_fire</t>
+  </si>
+  <si>
+    <t>e_ruodian_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_ruodian_9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_weiba9_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuweihu_weiba3_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -648,879 +1523,46 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>闪光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点形式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单纯弱点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位破坏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点破坏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单纯弱点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位破坏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>九个尾巴，本体，共10个可打击点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_moxing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_ruodian_10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weakpoint10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位破坏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weiba8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weiba6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weiba4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weiba2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒烟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weiba2_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weiba4_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weiba6_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiuweihu_weiba8_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>九尾中有4个尾巴有提升治疗的效果（部位破坏的4条尾巴），需要先消灭提升治疗效果的尾巴才能战胜九尾狐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间站位出现boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭所有怪物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本体，共1个可打击点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ershu_ruodian_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ershu_weakpoint1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ershu_moxing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>土</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhuyan_ruodian_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhuyan_weakpoint1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhuyan_moxing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破耳鼠后，进程1结束，进入进程2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>白泽、耳鼠、青鸟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白泽本体血量低于50%后，进程1结束，进入进程3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破白泽本体后，进程2结束，同时对局结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧站位出现耳鼠，中间站位出现boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧站位出现耳鼠，继承进程1血量与能量，中间站位出现白泽，继承进程1血量与能量，右侧站位出现青鸟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破白泽本体后，进程3结束，同时对局结束（不可能的，啊哈哈啊）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>99个周期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qingniao_ruodian_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qingniao_weakpoint1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qingniao_moxing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qingniao_ruodian_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qingniao_weakpoint1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个神眼、头顶角、口中诏、本体，共6个可打击点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>baize_ruodian_1</t>
-  </si>
-  <si>
-    <t>baize_ruodian_2</t>
-  </si>
-  <si>
-    <t>baize_ruodian_3</t>
-  </si>
-  <si>
-    <t>baize_ruodian_4</t>
-  </si>
-  <si>
-    <t>baize_ruodian_5</t>
-  </si>
-  <si>
-    <t>baize_ruodian_6</t>
-  </si>
-  <si>
-    <t>baize_weakpoint1</t>
-  </si>
-  <si>
-    <t>baize_weakpoint2</t>
-  </si>
-  <si>
-    <t>baize_weakpoint3</t>
-  </si>
-  <si>
-    <t>baize_weakpoint4</t>
-  </si>
-  <si>
-    <t>baize_weakpoint5</t>
-  </si>
-  <si>
-    <t>baize_weakpoint6</t>
-  </si>
-  <si>
-    <t>baize_moxing</t>
-  </si>
-  <si>
-    <t>神眼1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神眼2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神眼3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>头顶角</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>口中诏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>baize_shenyan1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>baize_shenyan2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>baize_shenyan3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强档治疗，附带hot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>强档群体法攻，附带属性下降（智力）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>强档治疗，附带hot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个周期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>强档治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点破坏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>xiaoguai_wp1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoguai_wp2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>monstermesh</t>
   </si>
   <si>
     <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>设计目的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.体验进程切换，目标状态变化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.体现弱点与本体属性不同</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.体验弱点部位破坏玩法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.体验弱点受伤比加成/减损玩法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.体现弱点影响技能效果玩法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计目的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.体现弱点对技能的加成效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.体现相同位置不同弱点效果的玩法（玩家取舍）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.弱点部位破坏后的模型显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.体现多怪物之间配合玩法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.体现非纯数值玩法（需要按照玩法操作）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.体现非怪物本体模型上的隐藏物件玩法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.体现多属性伙伴搭配玩法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>只在神眼存在时会使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>只在神眼存在时会使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.体验普通本体弱点的玩法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.体验隐藏怪物需要照妖镜操作照出的玩法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用防御技能，免伤25%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中档单击，给敌方单体目标造成120%物理攻击力的物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中档治疗，给己方单体目标回复60%法术攻击力的血量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中档法攻，给敌方单体目标造成120%法术攻击力的水属性伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性提升（力量，智力），使己方单体目标智力提升5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性下降（防御力），使敌方单体目标防御力降低50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackMedium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicCureMedium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffMagic</t>
-  </si>
-  <si>
-    <t>defend</t>
-  </si>
-  <si>
-    <t>attackSlight</t>
-  </si>
-  <si>
-    <t>magicWaterMedium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffDefense</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackStrong</t>
-  </si>
-  <si>
-    <t>弱档单击，给敌方单体目标造成100%物理攻击力的物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicFireSlight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicEarthSlight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffAttack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultZhuyan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用防御技能通用防御技能，免伤25%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>defend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackTriStrong</t>
-  </si>
-  <si>
-    <t>magicCureSlight</t>
-  </si>
-  <si>
-    <t>弱档治疗，回复50%法术攻击力血量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>强档三连击，给敌方单体目标造成三次40%物理攻击力的物理攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffMagicsp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackTriSlight</t>
-  </si>
-  <si>
-    <t>封印目标技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicWaterStrong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicWater/Fire/Earth/Plant/MetalStrong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠切进程实现修改弱点受伤比</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱档三连击，给敌方单体目标造成三次30%物理攻击力的物理攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>强档法攻，给敌方单体目标造成140%法术攻击力的水属性伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用克制目标的法术进行攻击，需要表现上进行区分，，给敌方单体目标造成140%法术攻击力的各种属性伤害（通过目标属性选择技能）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>（确认AI是否可以实现）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beneficial</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffMagic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossJiuweihu1,2,3,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(可以理解为大招)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔10个出手，使用一次该技能，效果为中档*治疗效果尾巴数治疗；目前实现为：拥有4只治疗尾巴时，回复1200%法术攻击力血量；拥有3只治疗尾巴时，回复800%法术攻击力血量；拥有2只治疗尾巴时，回复400%法术攻击力血量；拥有1只治疗尾巴时，回复300%法术攻击力血量；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方随机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方随机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中档单击，给单体目标造成120%物理攻击力的物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中档治疗，给单体目标回复60%法术攻击力的血量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性提升（智力），使单体目标智力提升5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方随机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱档单击，给单体目标造成100%物理攻击力的物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中档法攻，给单体目标造成120%法术攻击力的水属性伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性下降（防御力），使单体目标防御力降低50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方随机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方随机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中档物攻，附带dot；（玩家在10s内，操作攻击5次，每次伤害为60%物理攻击力伤害）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性提升（力量），使单体目标力量提升5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱档法攻，给单体目标造成100%法术攻击力的土属性伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>强档单攻，给单体目标造成140%物理攻击力的物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方随机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>强档物攻，附带dot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性提升（智力），使目标智力提升5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱档法攻，给单体目标造成100%法术攻击力的火属性伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalAttack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalAttack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalAttack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicAttack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicAttack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单纯弱点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破眼罩后，进程1结束，同时切换至进程2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破翅膀后，进程1结束，同时切换至进程3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认显示弱点：翅膀、穴位、舌头、本体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破本体后，进程2结束，同时对局结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间站位出现boss，继承进程1血量与能量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间站位出现boss，继承上一个进程血量与能量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破翅膀后，进程2结束，同时切换至进程4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间站位出现boss，继承进程1血量与能量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破本体后，进程4结束，同时对局结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认显示弱点：穴位、舌头、眼睛、嘴巴、本体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻破眼罩后，进程3结束，同时切换至进程4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单纯弱点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现调整</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5d</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新规则</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始出现1个青鸟，1个朱厌，1个耳鼠，然后依次刷出青鸟、朱厌、耳鼠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>中间站位出现boss（腾飞状态）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻破翅膀后，boss变更为站立状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强档物攻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中档物攻（玩家在10s内，操作攻击5次，每次伤害为60%物理攻击力伤害）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,8 +1665,152 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1649,8 +1835,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1710,8 +2069,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1806,8 +2272,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1879,6 +2468,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1961,7 +2560,31 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="123">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="100" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="104" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="108" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="112" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="116" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="120" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="101" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="105" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="109" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="113" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="117" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="121" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="102" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="106" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="110" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="114" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="118" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="122" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="82" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="83" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="84" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="85" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="86" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="88" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="78"/>
@@ -1983,6 +2606,22 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="好" xfId="87" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="98" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="92" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="94" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="97" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="95" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="93" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="99" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="103" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="107" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="111" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="115" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="119" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="89" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="91" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="90" builtinId="20" customBuiltin="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -2044,6 +2683,7 @@
     <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="注释" xfId="96" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2055,9 +2695,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2352,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2369,17 +3006,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2430,10 +3067,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="21" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2441,7 +3078,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2515,15 +3152,15 @@
       <c r="F23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="3" t="s">
         <v>36</v>
       </c>
@@ -2538,108 +3175,108 @@
       <c r="A24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
+        <v>317</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="19" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="4" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
+        <v>269</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="19" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43"/>
+        <v>270</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="4" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="46"/>
+      <c r="G27" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="19" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2652,17 +3289,17 @@
         <v>46</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
+        <v>271</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4" t="s">
@@ -2671,39 +3308,39 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="10" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>213</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E35" s="12">
         <v>1</v>
@@ -2711,7 +3348,7 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E36" s="12">
         <v>1</v>
@@ -2719,7 +3356,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E37" s="12">
         <v>-1</v>
@@ -2727,7 +3364,7 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D38" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E38" s="12">
         <v>1</v>
@@ -2735,7 +3372,7 @@
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D39" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E39" s="12">
         <v>-1</v>
@@ -2743,31 +3380,31 @@
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D40" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>214</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D41" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>113</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D42" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>215</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D43" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E43" s="12">
         <v>1</v>
@@ -2775,7 +3412,7 @@
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D44" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E44" s="12">
         <v>1</v>
@@ -2783,7 +3420,7 @@
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D45" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E45" s="12">
         <v>1</v>
@@ -2791,22 +3428,22 @@
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D46" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D47" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D48" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -2869,15 +3506,15 @@
       <c r="F56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="40"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="44"/>
       <c r="N56" s="3" t="s">
         <v>36</v>
       </c>
@@ -2892,108 +3529,108 @@
       <c r="A57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="37"/>
+        <v>317</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="41"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="19" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="37"/>
+        <v>273</v>
+      </c>
+      <c r="G58" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="41"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="19" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="37"/>
+        <v>274</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="41"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4" t="s">
         <v>44</v>
       </c>
       <c r="P59" s="19" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="F60" s="16"/>
-      <c r="G60" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="49"/>
+      <c r="G60" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="53"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3006,17 +3643,17 @@
         <v>46</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="37"/>
+        <v>271</v>
+      </c>
+      <c r="G61" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="41"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4" t="s">
@@ -3030,10 +3667,10 @@
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -3042,34 +3679,34 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="D65" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="D66" s="10" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="D67" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>234</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="D68" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E68" s="12">
         <v>1</v>
@@ -3078,7 +3715,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="D69" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E69" s="12">
         <v>1</v>
@@ -3087,7 +3724,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="D70" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E70" s="12">
         <v>-1</v>
@@ -3096,7 +3733,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="D71" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E71" s="12">
         <v>1</v>
@@ -3105,7 +3742,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="D72" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E72" s="12">
         <v>-1</v>
@@ -3114,34 +3751,34 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="D73" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="D74" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>113</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="D75" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>233</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="D76" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E76" s="12">
         <v>0</v>
@@ -3150,7 +3787,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="D77" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E77" s="12">
         <v>1</v>
@@ -3159,7 +3796,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="D78" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E78" s="12">
         <v>1</v>
@@ -3168,24 +3805,24 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="D79" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="D80" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E80" s="12"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="D81" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -3252,15 +3889,15 @@
       <c r="F89" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G89" s="38" t="s">
+      <c r="G89" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="40"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="44"/>
       <c r="N89" s="3" t="s">
         <v>36</v>
       </c>
@@ -3275,110 +3912,110 @@
       <c r="A90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="4" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G90" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="37"/>
+        <v>318</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G90" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="41"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="19" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="4" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G91" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="37"/>
+        <v>276</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="41"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="19" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="4" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G92" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="37"/>
+        <v>277</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="41"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4" t="s">
         <v>44</v>
       </c>
       <c r="P92" s="19" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="4" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G93" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="H93" s="51"/>
-      <c r="I93" s="51"/>
-      <c r="J93" s="51"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="51"/>
-      <c r="M93" s="52"/>
+        <v>278</v>
+      </c>
+      <c r="G93" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="56"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="19" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -3391,17 +4028,17 @@
         <v>46</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G94" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="37"/>
+        <v>271</v>
+      </c>
+      <c r="G94" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="41"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4" t="s">
@@ -3414,39 +4051,39 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="10" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>218</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E101" s="12">
         <v>1</v>
@@ -3454,7 +4091,7 @@
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E102" s="12">
         <v>1</v>
@@ -3462,7 +4099,7 @@
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E103" s="12">
         <v>-1</v>
@@ -3470,7 +4107,7 @@
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E104" s="12">
         <v>1</v>
@@ -3478,7 +4115,7 @@
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E105" s="12">
         <v>-1</v>
@@ -3486,31 +4123,31 @@
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>113</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>220</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E109" s="12">
         <v>1</v>
@@ -3518,7 +4155,7 @@
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E110" s="12">
         <v>1</v>
@@ -3526,7 +4163,7 @@
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E111" s="12">
         <v>1</v>
@@ -3534,22 +4171,22 @@
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E113" s="12"/>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3581,10 +4218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3611,32 +4248,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3683,1012 +4320,1087 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="21" t="s">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="21" t="s">
-        <v>358</v>
-      </c>
+      <c r="E22" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="21" t="s">
-        <v>361</v>
-      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="21" t="s">
-        <v>365</v>
-      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="4:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="1" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="1" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="C48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="C49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="C50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="C52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="C53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="C54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="C55" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="39"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="43"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="H57" s="45"/>
-      <c r="I57" s="46"/>
+        <v>258</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="H57" s="40"/>
+      <c r="I57" s="41"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="37"/>
+        <v>260</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="H58" s="40"/>
+      <c r="I58" s="41"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L58" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D59" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="H60" s="49"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="G61" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="H61" s="40"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="C63" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="D61" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="D63" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D63" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="D64" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="J64" s="12"/>
-      <c r="K64" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="N64" s="12"/>
-      <c r="O64" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="D65" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="12" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="J65" s="12"/>
-      <c r="K65" s="12" t="s">
-        <v>143</v>
+      <c r="K65" s="35" t="s">
+        <v>120</v>
       </c>
       <c r="L65" s="12"/>
       <c r="M65" s="12" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N65" s="12"/>
       <c r="O65" s="12" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="P65" s="12"/>
-      <c r="Q65" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q65" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="D66" s="10" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="12">
-        <v>1</v>
+      <c r="G66" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="H66" s="12"/>
-      <c r="I66" s="12">
-        <v>0</v>
+      <c r="I66" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="J66" s="12"/>
-      <c r="K66" s="12">
-        <v>1</v>
+      <c r="K66" s="35" t="s">
+        <v>321</v>
       </c>
       <c r="L66" s="12"/>
-      <c r="M66" s="12">
-        <v>1</v>
+      <c r="M66" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="N66" s="12"/>
-      <c r="O66" s="12">
-        <v>1</v>
+      <c r="O66" s="20" t="s">
+        <v>336</v>
       </c>
       <c r="P66" s="12"/>
-      <c r="Q66" s="12">
-        <v>1</v>
-      </c>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q66" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="D67" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="12">
-        <v>0.5</v>
+      <c r="G67" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="H67" s="12"/>
-      <c r="I67" s="12">
-        <v>1</v>
+      <c r="I67" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="J67" s="12"/>
-      <c r="K67" s="12">
-        <v>1.1000000000000001</v>
+      <c r="K67" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="L67" s="12"/>
-      <c r="M67" s="20">
-        <v>0.1</v>
+      <c r="M67" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="N67" s="12"/>
-      <c r="O67" s="12">
-        <v>1.1000000000000001</v>
+      <c r="O67" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="P67" s="12"/>
-      <c r="Q67" s="12">
-        <v>2</v>
-      </c>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q67" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="D68" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J68" s="12"/>
-      <c r="K68" s="20">
-        <v>-1</v>
+      <c r="K68" s="35">
+        <v>1</v>
       </c>
       <c r="L68" s="12"/>
       <c r="M68" s="12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N68" s="12"/>
       <c r="O68" s="12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P68" s="12"/>
-      <c r="Q68" s="20">
-        <v>-1</v>
-      </c>
-      <c r="R68" s="12"/>
-      <c r="S68" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q68" s="35">
+        <v>1</v>
+      </c>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35">
+        <v>1</v>
+      </c>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="D69" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J69" s="12"/>
-      <c r="K69" s="12">
-        <v>0</v>
+      <c r="K69" s="35">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L69" s="12"/>
-      <c r="M69" s="12">
-        <v>1</v>
+      <c r="M69" s="20">
+        <v>0.01</v>
       </c>
       <c r="N69" s="12"/>
       <c r="O69" s="12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P69" s="12"/>
-      <c r="Q69" s="12">
-        <v>1</v>
-      </c>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q69" s="35">
+        <v>2</v>
+      </c>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35">
+        <v>2</v>
+      </c>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="D70" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="12">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12">
+        <v>1000</v>
+      </c>
+      <c r="J70" s="12"/>
+      <c r="K70" s="35">
         <v>-1</v>
-      </c>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="L70" s="12"/>
       <c r="M70" s="12">
         <v>-1</v>
       </c>
       <c r="N70" s="12"/>
-      <c r="O70" s="12" t="s">
-        <v>158</v>
+      <c r="O70" s="12">
+        <v>200</v>
       </c>
       <c r="P70" s="12"/>
-      <c r="Q70" s="12">
+      <c r="Q70" s="35">
         <v>-1</v>
       </c>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12">
+      <c r="R70" s="35"/>
+      <c r="S70" s="35">
         <v>-1</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T70" s="12"/>
+      <c r="U70" s="20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="D71" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="13" t="s">
-        <v>119</v>
+      <c r="G71" s="12">
+        <v>1</v>
       </c>
       <c r="H71" s="12"/>
-      <c r="I71" s="13" t="s">
-        <v>122</v>
+      <c r="I71" s="12">
+        <v>1</v>
       </c>
       <c r="J71" s="12"/>
-      <c r="K71" s="13" t="s">
-        <v>123</v>
+      <c r="K71" s="35">
+        <v>0</v>
       </c>
       <c r="L71" s="12"/>
-      <c r="M71" s="13" t="s">
-        <v>131</v>
+      <c r="M71" s="12">
+        <v>1</v>
       </c>
       <c r="N71" s="12"/>
-      <c r="O71" s="13" t="s">
-        <v>132</v>
+      <c r="O71" s="12">
+        <v>0</v>
       </c>
       <c r="P71" s="12"/>
-      <c r="Q71" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="R71" s="12"/>
-      <c r="S71" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q71" s="35">
+        <v>1</v>
+      </c>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35">
+        <v>1</v>
+      </c>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="D72" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="12" t="s">
-        <v>113</v>
+      <c r="G72" s="12">
+        <v>-1</v>
       </c>
       <c r="H72" s="12"/>
-      <c r="I72" s="12" t="s">
-        <v>113</v>
+      <c r="I72" s="12">
+        <v>-1</v>
       </c>
       <c r="J72" s="12"/>
-      <c r="K72" s="12" t="s">
-        <v>159</v>
+      <c r="K72" s="35" t="s">
+        <v>146</v>
       </c>
       <c r="L72" s="12"/>
-      <c r="M72" s="12" t="s">
-        <v>113</v>
+      <c r="M72" s="12">
+        <v>-1</v>
       </c>
       <c r="N72" s="12"/>
       <c r="O72" s="12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P72" s="12"/>
-      <c r="Q72" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q72" s="35">
+        <v>-1</v>
+      </c>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35">
+        <v>-1</v>
+      </c>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="D73" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="13" t="s">
-        <v>120</v>
+        <v>367</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="13" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="J73" s="12"/>
-      <c r="K73" s="13" t="s">
-        <v>135</v>
+      <c r="K73" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="L73" s="12"/>
       <c r="M73" s="13" t="s">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="N73" s="12"/>
       <c r="O73" s="13" t="s">
-        <v>139</v>
+        <v>356</v>
       </c>
       <c r="P73" s="12"/>
-      <c r="Q73" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="R73" s="12"/>
-      <c r="S73" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q73" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="R73" s="35"/>
+      <c r="S73" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="T73" s="12"/>
+      <c r="U73" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="D74" s="10" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="12">
-        <v>1</v>
+      <c r="G74" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="H74" s="12"/>
-      <c r="I74" s="12">
-        <v>1</v>
+      <c r="I74" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="J74" s="12"/>
-      <c r="K74" s="12">
-        <v>0</v>
+      <c r="K74" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="L74" s="12"/>
-      <c r="M74" s="12">
-        <v>1</v>
+      <c r="M74" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="N74" s="12"/>
-      <c r="O74" s="12">
-        <v>0</v>
+      <c r="O74" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="P74" s="12"/>
-      <c r="Q74" s="12">
-        <v>1</v>
-      </c>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q74" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="D75" s="11" t="s">
-        <v>114</v>
+      <c r="D75" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
-      <c r="G75" s="12">
-        <v>0</v>
+      <c r="G75" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="H75" s="12"/>
-      <c r="I75" s="12">
-        <v>0</v>
+      <c r="I75" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="J75" s="12"/>
-      <c r="K75" s="12">
-        <v>0</v>
+      <c r="K75" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="L75" s="12"/>
-      <c r="M75" s="12">
-        <v>1</v>
-      </c>
+      <c r="M75" s="13"/>
       <c r="N75" s="12"/>
-      <c r="O75" s="12">
-        <v>0</v>
+      <c r="O75" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="P75" s="12"/>
-      <c r="Q75" s="12">
-        <v>0</v>
-      </c>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q75" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="R75" s="35"/>
+      <c r="S75" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="T75" s="12"/>
+      <c r="U75" s="13"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="D76" s="11" t="s">
-        <v>115</v>
+      <c r="D76" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" s="12"/>
-      <c r="K76" s="12">
-        <v>2</v>
+      <c r="K76" s="35">
+        <v>0</v>
       </c>
       <c r="L76" s="12"/>
       <c r="M76" s="12">
         <v>1</v>
       </c>
       <c r="N76" s="12"/>
-      <c r="O76" s="12">
-        <v>2</v>
+      <c r="O76" s="20">
+        <v>0</v>
       </c>
       <c r="P76" s="12"/>
-      <c r="Q76" s="12">
-        <v>2</v>
-      </c>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q76" s="35">
+        <v>1</v>
+      </c>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35">
+        <v>1</v>
+      </c>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="D77" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="12">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J77" s="12"/>
-      <c r="K77" s="12">
-        <v>120</v>
+      <c r="K77" s="35">
+        <v>0</v>
       </c>
       <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
+      <c r="M77" s="12">
+        <v>1</v>
+      </c>
       <c r="N77" s="12"/>
       <c r="O77" s="12">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="P77" s="12"/>
-      <c r="Q77" s="12">
-        <v>120</v>
-      </c>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q77" s="35">
+        <v>0</v>
+      </c>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35">
+        <v>0</v>
+      </c>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="D78" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="12">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J78" s="12"/>
-      <c r="K78" s="12">
-        <v>50</v>
+      <c r="K78" s="35">
+        <v>2</v>
       </c>
       <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
+      <c r="M78" s="12">
+        <v>1</v>
+      </c>
       <c r="N78" s="12"/>
       <c r="O78" s="12">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="P78" s="12"/>
-      <c r="Q78" s="12">
-        <v>50</v>
-      </c>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q78" s="35">
+        <v>2</v>
+      </c>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35">
+        <v>2</v>
+      </c>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="D79" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="13" t="s">
-        <v>150</v>
+      <c r="G79" s="12">
+        <v>100</v>
       </c>
       <c r="H79" s="12"/>
-      <c r="I79" s="12" t="s">
-        <v>113</v>
+      <c r="I79" s="12">
+        <v>-100</v>
       </c>
       <c r="J79" s="12"/>
-      <c r="K79" s="12" t="s">
-        <v>113</v>
+      <c r="K79" s="35">
+        <v>120</v>
       </c>
       <c r="L79" s="12"/>
-      <c r="M79" s="12" t="s">
-        <v>113</v>
-      </c>
+      <c r="M79" s="12"/>
       <c r="N79" s="12"/>
-      <c r="O79" s="13" t="s">
-        <v>371</v>
+      <c r="O79" s="12">
+        <v>100</v>
       </c>
       <c r="P79" s="12"/>
-      <c r="Q79" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q79" s="35">
+        <v>120</v>
+      </c>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35">
+        <v>120</v>
+      </c>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C81" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D82" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="D80" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="12">
+        <v>50</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12">
+        <v>50</v>
+      </c>
+      <c r="J80" s="12"/>
+      <c r="K80" s="35">
+        <v>50</v>
+      </c>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12">
+        <v>50</v>
+      </c>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="35">
+        <v>50</v>
+      </c>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35">
+        <v>50</v>
+      </c>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="D81" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J81" s="12"/>
+      <c r="K81" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N81" s="12"/>
+      <c r="O81" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G61:I61"/>
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G60:I60"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4696,8 +5408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4730,22 +5442,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4800,12 +5512,12 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -4910,15 +5622,15 @@
       <c r="F32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="40"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
       <c r="N32" s="3" t="s">
         <v>84</v>
       </c>
@@ -4933,50 +5645,50 @@
       <c r="A33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="37"/>
+        <v>353</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="41"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="19" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="4" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="37"/>
+        <v>281</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="41"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
@@ -4987,23 +5699,23 @@
       <c r="A35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="4" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="37"/>
+        <v>295</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="41"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
         <v>95</v>
@@ -5016,21 +5728,21 @@
       <c r="A36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="18" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="G36" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
+      <c r="G36" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="59"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18" t="s">
@@ -5047,17 +5759,17 @@
         <v>90</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="37"/>
+        <v>280</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
@@ -5067,26 +5779,26 @@
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="37"/>
+        <v>296</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="41"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4" t="s">
@@ -5112,10 +5824,10 @@
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="6"/>
@@ -5151,7 +5863,7 @@
         <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
@@ -5160,148 +5872,148 @@
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="D44" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="12" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L44" s="12"/>
       <c r="M44" s="12" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="12" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="R44" s="12"/>
       <c r="S44" s="12" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="T44" s="12"/>
       <c r="U44" s="12" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="V44" s="12"/>
       <c r="W44" s="12" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="X44" s="12"/>
       <c r="Y44" s="12" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="D45" s="10" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="P45" s="12"/>
       <c r="Q45" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="R45" s="12"/>
       <c r="S45" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="T45" s="12"/>
       <c r="U45" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="V45" s="12"/>
       <c r="W45" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="X45" s="12"/>
       <c r="Y45" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="D46" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="12" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="L46" s="12"/>
       <c r="M46" s="12" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="12" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="R46" s="12"/>
       <c r="S46" s="12" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="T46" s="12"/>
       <c r="U46" s="12" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="V46" s="12"/>
       <c r="W46" s="12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="X46" s="12"/>
       <c r="Y46" s="12" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="D47" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -5348,7 +6060,7 @@
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="D48" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -5395,12 +6107,12 @@
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="D49" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="12">
-        <v>-1</v>
+        <v>9999999</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="17">
@@ -5442,7 +6154,7 @@
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="D50" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -5489,7 +6201,7 @@
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="D51" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -5502,7 +6214,7 @@
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" s="12">
@@ -5510,7 +6222,7 @@
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="12" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12">
@@ -5518,7 +6230,7 @@
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="12" t="s">
-        <v>157</v>
+        <v>382</v>
       </c>
       <c r="T51" s="12"/>
       <c r="U51" s="12">
@@ -5526,7 +6238,7 @@
       </c>
       <c r="V51" s="12"/>
       <c r="W51" s="12" t="s">
-        <v>217</v>
+        <v>383</v>
       </c>
       <c r="X51" s="12"/>
       <c r="Y51" s="12">
@@ -5536,146 +6248,146 @@
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="D52" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="13" t="s">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="13" t="s">
-        <v>173</v>
+        <v>371</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="13" t="s">
-        <v>175</v>
+        <v>372</v>
       </c>
       <c r="L52" s="12"/>
       <c r="M52" s="13" t="s">
-        <v>177</v>
+        <v>373</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="13" t="s">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="13" t="s">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="R52" s="12"/>
       <c r="S52" s="13" t="s">
-        <v>183</v>
+        <v>376</v>
       </c>
       <c r="T52" s="12"/>
       <c r="U52" s="13" t="s">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="V52" s="12"/>
       <c r="W52" s="13" t="s">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="X52" s="12"/>
       <c r="Y52" s="13" t="s">
-        <v>189</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="D53" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="L53" s="12"/>
       <c r="M53" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="12" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R53" s="12"/>
       <c r="S53" s="12" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="T53" s="12"/>
       <c r="U53" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V53" s="12"/>
       <c r="W53" s="12" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="X53" s="12"/>
       <c r="Y53" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="D54" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="13" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="13" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="L54" s="12"/>
       <c r="M54" s="13"/>
       <c r="N54" s="12"/>
       <c r="O54" s="13" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R54" s="12"/>
       <c r="S54" s="13" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="T54" s="12"/>
       <c r="U54" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V54" s="12"/>
       <c r="W54" s="13" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="X54" s="12"/>
       <c r="Y54" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="D55" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -5722,7 +6434,7 @@
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="D56" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -5769,7 +6481,7 @@
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="D57" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -5816,7 +6528,7 @@
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="D58" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
@@ -5861,7 +6573,7 @@
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="D59" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -5906,48 +6618,48 @@
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="D60" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J60" s="12"/>
       <c r="K60" s="13" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="13" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R60" s="12"/>
       <c r="S60" s="13" t="s">
-        <v>206</v>
+        <v>381</v>
       </c>
       <c r="T60" s="12"/>
       <c r="U60" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V60" s="12"/>
       <c r="W60" s="13" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="X60" s="12"/>
       <c r="Y60" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
@@ -6008,27 +6720,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6062,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6083,17 +6795,17 @@
         <v>17</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" s="24" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E18" s="24" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
@@ -6106,20 +6818,20 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E20" s="24" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D21" s="24" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E22" s="24" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
@@ -6153,10 +6865,10 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D29" s="24" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
@@ -6238,15 +6950,15 @@
       <c r="F41" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="58"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="62"/>
       <c r="N41" s="27" t="s">
         <v>36</v>
       </c>
@@ -6261,23 +6973,23 @@
       <c r="A42" s="24"/>
       <c r="C42" s="26"/>
       <c r="D42" s="18" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="G42" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="55"/>
+        <v>268</v>
+      </c>
+      <c r="G42" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="59"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
       <c r="P42" s="18" t="s">
@@ -6288,55 +7000,55 @@
       <c r="A43" s="24"/>
       <c r="C43" s="26"/>
       <c r="D43" s="18" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="G43" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="55"/>
+        <v>269</v>
+      </c>
+      <c r="G43" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="59"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="C44" s="26"/>
       <c r="D44" s="18" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
+        <v>284</v>
+      </c>
+      <c r="G44" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="59"/>
       <c r="N44" s="18" t="s">
         <v>43</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="P44" s="18" t="s">
         <v>40</v>
@@ -6346,25 +7058,25 @@
       <c r="A45" s="24"/>
       <c r="C45" s="26"/>
       <c r="D45" s="18" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F45" s="18"/>
-      <c r="G45" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="55"/>
+      <c r="G45" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="59"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -6377,17 +7089,17 @@
         <v>46</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="G46" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="55"/>
+        <v>271</v>
+      </c>
+      <c r="G46" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="59"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
       <c r="P46" s="18" t="s">
@@ -6396,39 +7108,39 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C48" s="24" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D50" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51" s="24" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E53" s="25">
         <v>1</v>
@@ -6436,7 +7148,7 @@
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E54" s="25">
         <v>1</v>
@@ -6444,7 +7156,7 @@
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E55" s="25">
         <v>-1</v>
@@ -6452,7 +7164,7 @@
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E56" s="25">
         <v>1</v>
@@ -6460,7 +7172,7 @@
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E57" s="25">
         <v>-1</v>
@@ -6468,31 +7180,31 @@
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D61" s="24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E61" s="25">
         <v>0</v>
@@ -6500,7 +7212,7 @@
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D62" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E62" s="25">
         <v>1</v>
@@ -6508,7 +7220,7 @@
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D63" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E63" s="25">
         <v>1</v>
@@ -6516,7 +7228,7 @@
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E64" s="25">
         <v>120</v>
@@ -6524,7 +7236,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D65" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E65" s="25">
         <v>50</v>
@@ -6532,10 +7244,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D66" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -6598,15 +7310,15 @@
       <c r="F74" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="56" t="s">
+      <c r="G74" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="58"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="62"/>
       <c r="N74" s="27" t="s">
         <v>36</v>
       </c>
@@ -6621,23 +7333,23 @@
       <c r="A75" s="24"/>
       <c r="C75" s="26"/>
       <c r="D75" s="18" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="G75" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="55"/>
+        <v>272</v>
+      </c>
+      <c r="G75" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="59"/>
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
       <c r="P75" s="18" t="s">
@@ -6648,50 +7360,50 @@
       <c r="A76" s="24"/>
       <c r="C76" s="26"/>
       <c r="D76" s="18" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="G76" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="55"/>
+        <v>273</v>
+      </c>
+      <c r="G76" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="59"/>
       <c r="N76" s="18"/>
       <c r="O76" s="18"/>
       <c r="P76" s="18" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="C77" s="26"/>
       <c r="D77" s="18" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E77" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="G77" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="55"/>
+        <v>274</v>
+      </c>
+      <c r="G77" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="59"/>
       <c r="N77" s="18" t="s">
         <v>43</v>
       </c>
@@ -6706,25 +7418,25 @@
       <c r="A78" s="24"/>
       <c r="C78" s="26"/>
       <c r="D78" s="18" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F78" s="18"/>
-      <c r="G78" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="61"/>
+      <c r="G78" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="64"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="65"/>
       <c r="N78" s="18"/>
       <c r="O78" s="18"/>
       <c r="P78" s="18" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -6737,17 +7449,17 @@
         <v>46</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="G79" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="55"/>
+        <v>271</v>
+      </c>
+      <c r="G79" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="59"/>
       <c r="N79" s="18"/>
       <c r="O79" s="18"/>
       <c r="P79" s="18" t="s">
@@ -6761,10 +7473,10 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="24"/>
       <c r="C81" s="24" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -6773,34 +7485,34 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="24"/>
       <c r="D86" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E86" s="25">
         <v>1</v>
@@ -6809,7 +7521,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="24"/>
       <c r="D87" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E87" s="25">
         <v>1.0000000000000001E-5</v>
@@ -6818,7 +7530,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="24"/>
       <c r="D88" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E88" s="25">
         <v>-1</v>
@@ -6827,7 +7539,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="24"/>
       <c r="D89" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E89" s="25">
         <v>1</v>
@@ -6836,7 +7548,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="24"/>
       <c r="D90" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E90" s="25">
         <v>-1</v>
@@ -6845,34 +7557,34 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="24"/>
       <c r="D91" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="24"/>
       <c r="D92" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="24"/>
       <c r="D93" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="24"/>
       <c r="D94" s="24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E94" s="25">
         <v>1</v>
@@ -6881,7 +7593,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="24"/>
       <c r="D95" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E95" s="25">
         <v>1</v>
@@ -6890,7 +7602,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="24"/>
       <c r="D96" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E96" s="25">
         <v>1</v>
@@ -6899,7 +7611,7 @@
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="24"/>
       <c r="D97" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E97" s="25">
         <v>120</v>
@@ -6908,7 +7620,7 @@
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="24"/>
       <c r="D98" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E98" s="25">
         <v>50</v>
@@ -6917,10 +7629,10 @@
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="24"/>
       <c r="D99" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -6990,15 +7702,15 @@
       <c r="F108" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="56" t="s">
+      <c r="G108" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="58"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="62"/>
       <c r="N108" s="27" t="s">
         <v>36</v>
       </c>
@@ -7013,23 +7725,23 @@
       <c r="A109" s="24"/>
       <c r="C109" s="26"/>
       <c r="D109" s="18" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E109" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="G109" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="G109" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="H109" s="58"/>
+      <c r="I109" s="58"/>
+      <c r="J109" s="58"/>
+      <c r="K109" s="58"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="59"/>
       <c r="N109" s="18"/>
       <c r="O109" s="18"/>
       <c r="P109" s="18" t="s">
@@ -7040,75 +7752,75 @@
       <c r="A110" s="24"/>
       <c r="C110" s="26"/>
       <c r="D110" s="18" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E110" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="G110" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="H110" s="54"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="54"/>
-      <c r="L110" s="54"/>
-      <c r="M110" s="55"/>
+        <v>287</v>
+      </c>
+      <c r="G110" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="H110" s="58"/>
+      <c r="I110" s="58"/>
+      <c r="J110" s="58"/>
+      <c r="K110" s="58"/>
+      <c r="L110" s="58"/>
+      <c r="M110" s="59"/>
       <c r="N110" s="18"/>
       <c r="O110" s="18"/>
       <c r="P110" s="18" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="24"/>
       <c r="C111" s="26"/>
       <c r="D111" s="18" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E111" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F111" s="18"/>
-      <c r="G111" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="55"/>
+      <c r="G111" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="H111" s="58"/>
+      <c r="I111" s="58"/>
+      <c r="J111" s="58"/>
+      <c r="K111" s="58"/>
+      <c r="L111" s="58"/>
+      <c r="M111" s="59"/>
       <c r="N111" s="18"/>
       <c r="O111" s="18" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="P111" s="18" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="C112" s="26"/>
       <c r="D112" s="18" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F112" s="18"/>
-      <c r="G112" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="H112" s="54"/>
-      <c r="I112" s="54"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="54"/>
-      <c r="L112" s="54"/>
-      <c r="M112" s="55"/>
+      <c r="G112" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="H112" s="58"/>
+      <c r="I112" s="58"/>
+      <c r="J112" s="58"/>
+      <c r="K112" s="58"/>
+      <c r="L112" s="58"/>
+      <c r="M112" s="59"/>
       <c r="N112" s="18"/>
       <c r="O112" s="18"/>
       <c r="P112" s="18" t="s">
@@ -7125,17 +7837,17 @@
         <v>46</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="G113" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="55"/>
+        <v>271</v>
+      </c>
+      <c r="G113" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="H113" s="58"/>
+      <c r="I113" s="58"/>
+      <c r="J113" s="58"/>
+      <c r="K113" s="58"/>
+      <c r="L113" s="58"/>
+      <c r="M113" s="59"/>
       <c r="N113" s="18"/>
       <c r="O113" s="18"/>
       <c r="P113" s="18" t="s">
@@ -7145,7 +7857,7 @@
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
       <c r="B114" s="24" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C114" s="26"/>
       <c r="D114" s="18" t="s">
@@ -7155,23 +7867,23 @@
         <v>39</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="G114" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="55"/>
+        <v>288</v>
+      </c>
+      <c r="G114" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="H114" s="58"/>
+      <c r="I114" s="58"/>
+      <c r="J114" s="58"/>
+      <c r="K114" s="58"/>
+      <c r="L114" s="58"/>
+      <c r="M114" s="59"/>
       <c r="N114" s="18" t="s">
         <v>63</v>
       </c>
       <c r="O114" s="18"/>
       <c r="P114" s="18" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -7184,17 +7896,17 @@
         <v>65</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="G115" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="G115" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="H115" s="54"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="55"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="58"/>
+      <c r="M115" s="59"/>
       <c r="N115" s="18" t="s">
         <v>67</v>
       </c>
@@ -7202,13 +7914,13 @@
         <v>68</v>
       </c>
       <c r="P115" s="18" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="24"/>
       <c r="C116" s="26" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>70</v>
@@ -7264,7 +7976,7 @@
         <v>69</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -7273,94 +7985,94 @@
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="24"/>
       <c r="D121" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F121" s="25"/>
       <c r="G121" s="25" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="H121" s="25"/>
       <c r="I121" s="25" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="J121" s="25"/>
       <c r="K121" s="25" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="L121" s="25"/>
       <c r="M121" s="25" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="N121" s="25"/>
       <c r="O121" s="25" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="24"/>
       <c r="D122" s="24" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F122" s="25"/>
       <c r="G122" s="25" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H122" s="25"/>
       <c r="I122" s="25" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J122" s="25"/>
       <c r="K122" s="25" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L122" s="25"/>
       <c r="M122" s="25" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="N122" s="25"/>
       <c r="O122" s="25" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="24"/>
       <c r="D123" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F123" s="25"/>
       <c r="G123" s="25" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="H123" s="25"/>
       <c r="I123" s="25" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="J123" s="25"/>
       <c r="K123" s="25" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="L123" s="25"/>
       <c r="M123" s="25" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="N123" s="25"/>
       <c r="O123" s="25" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="24"/>
       <c r="D124" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E124" s="25">
         <v>1</v>
@@ -7389,7 +8101,7 @@
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="24"/>
       <c r="D125" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E125" s="25">
         <v>1</v>
@@ -7418,7 +8130,7 @@
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="24"/>
       <c r="D126" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E126" s="25">
         <v>-1</v>
@@ -7447,7 +8159,7 @@
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="24"/>
       <c r="D127" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E127" s="25">
         <v>1</v>
@@ -7476,26 +8188,26 @@
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="D128" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E128" s="25">
         <v>-1</v>
       </c>
       <c r="F128" s="25"/>
       <c r="G128" s="25" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H128" s="25"/>
       <c r="I128" s="25" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J128" s="25"/>
       <c r="K128" s="25" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="L128" s="25"/>
       <c r="M128" s="25" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="N128" s="25"/>
       <c r="O128" s="25">
@@ -7505,94 +8217,94 @@
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="24"/>
       <c r="D129" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E129" s="30" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="F129" s="25"/>
       <c r="G129" s="30" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="H129" s="25"/>
       <c r="I129" s="30" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="J129" s="25"/>
       <c r="K129" s="30" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="L129" s="25"/>
       <c r="M129" s="30" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="N129" s="25"/>
       <c r="O129" s="30" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="24"/>
       <c r="D130" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F130" s="25"/>
       <c r="G130" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H130" s="25"/>
       <c r="I130" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J130" s="25"/>
       <c r="K130" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L130" s="25"/>
       <c r="M130" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N130" s="25"/>
       <c r="O130" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="24"/>
       <c r="D131" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E131" s="30" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="F131" s="25"/>
       <c r="G131" s="30" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="H131" s="25"/>
       <c r="I131" s="30" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="J131" s="25"/>
       <c r="K131" s="30" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="L131" s="25"/>
       <c r="M131" s="30" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="N131" s="25"/>
       <c r="O131" s="30" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="D132" s="24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E132" s="25">
         <v>1</v>
@@ -7621,7 +8333,7 @@
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="24"/>
       <c r="D133" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E133" s="25">
         <v>1</v>
@@ -7650,7 +8362,7 @@
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="24"/>
       <c r="D134" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E134" s="25">
         <v>1</v>
@@ -7679,7 +8391,7 @@
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="24"/>
       <c r="D135" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E135" s="25">
         <v>120</v>
@@ -7708,7 +8420,7 @@
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="24"/>
       <c r="D136" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E136" s="25">
         <v>50</v>
@@ -7737,30 +8449,30 @@
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="24"/>
       <c r="D137" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F137" s="25"/>
       <c r="G137" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H137" s="25"/>
       <c r="I137" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J137" s="25"/>
       <c r="K137" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L137" s="25"/>
       <c r="M137" s="30" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="N137" s="25"/>
       <c r="O137" s="30" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -7807,39 +8519,39 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="22" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="22" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="22" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
